--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_lexical_diversity.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_lexical_diversity.xlsx
@@ -11,17 +11,18 @@
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="2013" sheetId="3" r:id="rId3"/>
     <sheet name="2014" sheetId="4" r:id="rId4"/>
-    <sheet name="2016" sheetId="5" r:id="rId5"/>
-    <sheet name="2017" sheetId="6" r:id="rId6"/>
-    <sheet name="2018" sheetId="7" r:id="rId7"/>
-    <sheet name="Summary" sheetId="8" r:id="rId8"/>
+    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" r:id="rId7"/>
+    <sheet name="2018" sheetId="8" r:id="rId8"/>
+    <sheet name="Summary" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="166">
   <si>
     <t>factcheckURL</t>
   </si>
@@ -81,6 +82,42 @@
   </si>
   <si>
     <t>http://www.politifact.com/wisconsin/statements/2014/jul/02/state-democratic-party-wisconsin/wisconsin-sen-ron-johnson-largely-unknown-democrat/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/nov/06/greg-abbott/greg-abbott-embarrassed-says-californians-buying-m/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/16/scott-walker/gov-scott-walker-says-board-wanted-accept-mickey-m/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/05/dana-loesch/Planned-parenthood-86-percent-abortion-revenue/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/sep/23/donald-trump/hillary-clinton-obama-birther-fact-check/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/sep/10/ted-cruz/ted-cruz-says-deal-will-facilitate-and-accelerate-/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/aug/26/hillary-clinton/hillary-clinton-says-no-gop-candidate-has-talked-a/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jul/21/wisconsin-state-afl-cio/wisconsin-afl-cio-says-scott-walker-budget-means-n/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/mar/20/glenn-beck/glenn-beck-says-barack-obama-took-iran-hamas-us-te/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/nov/08/ben-carson/ben-carson-said-no-one-who-signed-declaration-inde/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jul/07/dinesh-dsouza/hillary-clinton-confederate-battle-flag-nope-old-i/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jun/25/gavin-mcinnes/tweet-civil-war-was-about-secession-not-slavery/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/feb/06/scott-walker/despite-deliberate-actions-scott-walker-calls-chan/</t>
   </si>
   <si>
     <t>http://www.politifact.com/florida/statements/2016/aug/12/carlos-beruff/fbi-admitted-it-cannot-properly-vet-middle-eastern/</t>
@@ -1107,6 +1144,137 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0.9333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0.8636363636363636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0.421602787456446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0.4005305039787798</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1123,7 +1291,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0.8142857142857143</v>
@@ -1131,7 +1299,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0.6854838709677419</v>
@@ -1139,7 +1307,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0.639751552795031</v>
@@ -1147,7 +1315,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0.9545454545454546</v>
@@ -1155,7 +1323,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0.9333333333333333</v>
@@ -1163,7 +1331,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>0.9285714285714286</v>
@@ -1171,7 +1339,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1179,7 +1347,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>0.9629629629629629</v>
@@ -1187,7 +1355,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>0.8846153846153846</v>
@@ -1195,7 +1363,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>0.88</v>
@@ -1203,7 +1371,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>0.92</v>
@@ -1211,7 +1379,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>0.7857142857142857</v>
@@ -1219,7 +1387,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>0.8666666666666667</v>
@@ -1227,7 +1395,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>0.7346938775510204</v>
@@ -1235,7 +1403,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1243,7 +1411,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>0.8846153846153846</v>
@@ -1251,7 +1419,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>0.9565217391304348</v>
@@ -1259,7 +1427,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>0.9230769230769231</v>
@@ -1267,7 +1435,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>0.9047619047619048</v>
@@ -1275,7 +1443,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B21">
         <v>0.9047619047619048</v>
@@ -1283,7 +1451,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>0.8064516129032258</v>
@@ -1291,7 +1459,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>0.9444444444444444</v>
@@ -1299,7 +1467,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>0.6666666666666666</v>
@@ -1307,7 +1475,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1315,7 +1483,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1323,7 +1491,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B27">
         <v>0.8695652173913043</v>
@@ -1331,7 +1499,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B28">
         <v>0.8</v>
@@ -1339,7 +1507,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B29">
         <v>0.6521739130434783</v>
@@ -1347,7 +1515,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B30">
         <v>0.9</v>
@@ -1355,7 +1523,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1398,7 +1566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B66"/>
   <sheetViews>
@@ -1416,7 +1584,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>0.85</v>
@@ -1424,7 +1592,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1432,7 +1600,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1440,7 +1608,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>0.95</v>
@@ -1448,7 +1616,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1456,7 +1624,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -1464,7 +1632,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1472,7 +1640,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>0.8333333333333334</v>
@@ -1480,7 +1648,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>0.7846153846153846</v>
@@ -1488,7 +1656,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>0.9565217391304348</v>
@@ -1496,7 +1664,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1504,7 +1672,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>0.9166666666666666</v>
@@ -1512,7 +1680,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1520,7 +1688,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B15">
         <v>0.8</v>
@@ -1528,7 +1696,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B16">
         <v>0.9444444444444444</v>
@@ -1536,7 +1704,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1544,7 +1712,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B18">
         <v>0.8695652173913043</v>
@@ -1552,7 +1720,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>0.8421052631578947</v>
@@ -1560,7 +1728,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B20">
         <v>0.8666666666666667</v>
@@ -1568,7 +1736,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B21">
         <v>0.8571428571428571</v>
@@ -1576,7 +1744,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>0.4284077892325315</v>
@@ -1584,7 +1752,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>0.8571428571428571</v>
@@ -1592,7 +1760,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1600,7 +1768,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B25">
         <v>0.96</v>
@@ -1608,7 +1776,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B26">
         <v>0.9545454545454546</v>
@@ -1616,7 +1784,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B27">
         <v>0.9166666666666666</v>
@@ -1624,7 +1792,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1632,7 +1800,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B29">
         <v>0.9545454545454546</v>
@@ -1640,7 +1808,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B30">
         <v>0.9523809523809523</v>
@@ -1648,7 +1816,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B31">
         <v>0.9166666666666666</v>
@@ -1656,7 +1824,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B32">
         <v>0.9375</v>
@@ -1664,7 +1832,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B33">
         <v>0.8333333333333334</v>
@@ -1672,7 +1840,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1680,7 +1848,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>0.8571428571428571</v>
@@ -1688,7 +1856,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B36">
         <v>0.5482456140350878</v>
@@ -1696,7 +1864,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1704,7 +1872,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B38">
         <v>0.8571428571428571</v>
@@ -1712,7 +1880,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B39">
         <v>0.88</v>
@@ -1720,7 +1888,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>0.8461538461538461</v>
@@ -1728,7 +1896,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B41">
         <v>0.9565217391304348</v>
@@ -1736,7 +1904,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B42">
         <v>0.9090909090909091</v>
@@ -1744,7 +1912,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1752,7 +1920,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B44">
         <v>0.8928571428571429</v>
@@ -1760,7 +1928,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B45">
         <v>0.9523809523809523</v>
@@ -1768,7 +1936,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B46">
         <v>0.5797665369649806</v>
@@ -1776,7 +1944,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B47">
         <v>0.8846153846153846</v>
@@ -1784,7 +1952,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B48">
         <v>0.9473684210526315</v>
@@ -1792,7 +1960,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1800,7 +1968,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B50">
         <v>0.8333333333333334</v>
@@ -1808,7 +1976,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B51">
         <v>0.8846153846153846</v>
@@ -1816,7 +1984,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B52">
         <v>0.9285714285714286</v>
@@ -1824,7 +1992,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B53">
         <v>0.9565217391304348</v>
@@ -1832,7 +2000,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B54">
         <v>0.7254901960784313</v>
@@ -1840,7 +2008,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B55">
         <v>0.8604651162790697</v>
@@ -1848,7 +2016,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B56">
         <v>0.9565217391304348</v>
@@ -1856,7 +2024,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B57">
         <v>0.8076923076923077</v>
@@ -1864,7 +2032,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B58">
         <v>0.75</v>
@@ -1872,7 +2040,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B59">
         <v>0.896551724137931</v>
@@ -1880,7 +2048,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B60">
         <v>0.92</v>
@@ -1888,7 +2056,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B61">
         <v>0.8260869565217391</v>
@@ -1896,7 +2064,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -1904,7 +2072,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B63">
         <v>0.8518518518518519</v>
@@ -1912,7 +2080,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -1920,7 +2088,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1928,7 +2096,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B66">
         <v>0.8518518518518519</v>
@@ -2006,7 +2174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B31"/>
   <sheetViews>
@@ -2024,7 +2192,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>0.8918918918918919</v>
@@ -2032,7 +2200,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2040,7 +2208,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>0.896551724137931</v>
@@ -2048,7 +2216,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>0.7872340425531915</v>
@@ -2056,7 +2224,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B6">
         <v>0.9090909090909091</v>
@@ -2064,7 +2232,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>0.8333333333333334</v>
@@ -2072,7 +2240,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>0.8409090909090909</v>
@@ -2080,7 +2248,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>0.8723404255319149</v>
@@ -2088,7 +2256,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B10">
         <v>0.8085106382978723</v>
@@ -2096,7 +2264,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B11">
         <v>0.8604651162790697</v>
@@ -2104,7 +2272,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>0.9285714285714286</v>
@@ -2112,7 +2280,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B13">
         <v>0.8695652173913043</v>
@@ -2120,7 +2288,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <v>0.8695652173913043</v>
@@ -2128,7 +2296,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>0.8</v>
@@ -2136,7 +2304,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B16">
         <v>0.7826086956521739</v>
@@ -2144,7 +2312,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B17">
         <v>0.8809523809523809</v>
@@ -2152,7 +2320,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B18">
         <v>0.660377358490566</v>
@@ -2160,7 +2328,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2168,7 +2336,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B20">
         <v>0.8</v>
@@ -2176,7 +2344,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B21">
         <v>0.8148148148148148</v>
@@ -2184,7 +2352,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B22">
         <v>0.9166666666666666</v>
@@ -2192,7 +2360,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B23">
         <v>0.6956521739130435</v>
@@ -2200,7 +2368,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B24">
         <v>0.8181818181818182</v>
@@ -2208,7 +2376,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B25">
         <v>0.6792452830188679</v>
@@ -2216,7 +2384,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B26">
         <v>0.7419354838709677</v>
@@ -2224,7 +2392,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B27">
         <v>0.875</v>
@@ -2232,7 +2400,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B28">
         <v>0.851063829787234</v>
@@ -2240,7 +2408,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B29">
         <v>0.7826086956521739</v>
@@ -2248,7 +2416,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B30">
         <v>0.7727272727272727</v>
@@ -2256,7 +2424,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B31">
         <v>0.7450980392156863</v>
@@ -2299,9 +2467,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2309,31 +2477,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2448,28 +2616,28 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>0.8734554747601565</v>
+        <v>0.837065400548895</v>
       </c>
       <c r="D6">
-        <v>0.1087359204594399</v>
+        <v>0.2073618696352768</v>
       </c>
       <c r="E6">
-        <v>0.639751552795031</v>
+        <v>0.4005305039787798</v>
       </c>
       <c r="F6">
-        <v>0.8084101382488479</v>
+        <v>0.8522727272727273</v>
       </c>
       <c r="G6">
-        <v>0.9023809523809524</v>
+        <v>0.8975</v>
       </c>
       <c r="H6">
-        <v>0.952020202020202</v>
+        <v>0.953125</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2477,28 +2645,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>0.8960475482588336</v>
+        <v>0.8734554747601565</v>
       </c>
       <c r="D7">
-        <v>0.1100138192091222</v>
+        <v>0.1087359204594399</v>
       </c>
       <c r="E7">
-        <v>0.4284077892325315</v>
+        <v>0.639751552795031</v>
       </c>
       <c r="F7">
-        <v>0.8518518518518519</v>
+        <v>0.8084101382488479</v>
       </c>
       <c r="G7">
-        <v>0.9166666666666666</v>
+        <v>0.9023809523809524</v>
       </c>
       <c r="H7">
-        <v>0.96</v>
+        <v>0.952020202020202</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2506,30 +2674,59 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>0.8960475482588336</v>
+      </c>
+      <c r="D8">
+        <v>0.1100138192091222</v>
+      </c>
+      <c r="E8">
+        <v>0.4284077892325315</v>
+      </c>
+      <c r="F8">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="G8">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.96</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>2018</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>30</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>0.8261653849440971</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.07631443533596698</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>0.660377358490566</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.7837650323774283</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>0.8257575757575758</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>0.8743351063829787</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>1</v>
       </c>
     </row>

--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_lexical_diversity.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_lexical_diversity.xlsx
@@ -909,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.412488174077578</v>
+        <v>0.3444866920152092</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.95</v>
+        <v>0.9565217391304348</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -981,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.9285714285714286</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -989,7 +989,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9032258064516129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -997,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8205128205128205</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1005,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.8571428571428571</v>
+        <v>0.8235294117647058</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1021,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.6473684210526316</v>
+        <v>0.5814977973568282</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1029,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1037,7 +1037,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.9047619047619048</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1045,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>0.9473684210526315</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>0.8051948051948052</v>
+        <v>0.7216494845360825</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>0.95</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>0.8548387096774194</v>
+        <v>0.8428571428571429</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1163,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1179,7 +1179,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>0.9375</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1187,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>0.875</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1195,7 +1195,7 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1203,7 +1203,7 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>0.8636363636363636</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1211,7 +1211,7 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>0.92</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1219,7 +1219,7 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>0.421602787456446</v>
+        <v>0.3605633802816902</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1227,7 +1227,7 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>0.4005305039787798</v>
+        <v>0.3406593406593407</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1243,7 +1243,7 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <v>0.875</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1251,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="B13">
-        <v>0.8181818181818182</v>
+        <v>0.8076923076923077</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1294,7 @@
         <v>32</v>
       </c>
       <c r="B2">
-        <v>0.8142857142857143</v>
+        <v>0.7763157894736842</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>0.6854838709677419</v>
+        <v>0.6590909090909091</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>0.639751552795031</v>
+        <v>0.5955056179775281</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>35</v>
       </c>
       <c r="B5">
-        <v>0.9545454545454546</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>36</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9411764705882353</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>37</v>
       </c>
       <c r="B7">
-        <v>0.9285714285714286</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>39</v>
       </c>
       <c r="B9">
-        <v>0.9629629629629629</v>
+        <v>0.9117647058823529</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>40</v>
       </c>
       <c r="B10">
-        <v>0.8846153846153846</v>
+        <v>0.7714285714285715</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>41</v>
       </c>
       <c r="B11">
-        <v>0.88</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>42</v>
       </c>
       <c r="B12">
-        <v>0.92</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>43</v>
       </c>
       <c r="B13">
-        <v>0.7857142857142857</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>44</v>
       </c>
       <c r="B14">
-        <v>0.8666666666666667</v>
+        <v>0.8235294117647058</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>45</v>
       </c>
       <c r="B15">
-        <v>0.7346938775510204</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>46</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>47</v>
       </c>
       <c r="B17">
-        <v>0.8846153846153846</v>
+        <v>0.8709677419354839</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>48</v>
       </c>
       <c r="B18">
-        <v>0.9565217391304348</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>49</v>
       </c>
       <c r="B19">
-        <v>0.9230769230769231</v>
+        <v>0.8387096774193549</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>50</v>
       </c>
       <c r="B20">
-        <v>0.9047619047619048</v>
+        <v>0.9130434782608695</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>51</v>
       </c>
       <c r="B21">
-        <v>0.9047619047619048</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>52</v>
       </c>
       <c r="B22">
-        <v>0.8064516129032258</v>
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>53</v>
       </c>
       <c r="B23">
-        <v>0.9444444444444444</v>
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>54</v>
       </c>
       <c r="B24">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>56</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>57</v>
       </c>
       <c r="B27">
-        <v>0.8695652173913043</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>58</v>
       </c>
       <c r="B28">
-        <v>0.8</v>
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>59</v>
       </c>
       <c r="B29">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>60</v>
       </c>
       <c r="B30">
-        <v>0.9</v>
+        <v>0.9130434782608695</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1587,7 +1587,7 @@
         <v>62</v>
       </c>
       <c r="B2">
-        <v>0.85</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1595,7 +1595,7 @@
         <v>63</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1611,7 +1611,7 @@
         <v>65</v>
       </c>
       <c r="B5">
-        <v>0.95</v>
+        <v>0.9545454545454546</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1627,7 +1627,7 @@
         <v>67</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1635,7 +1635,7 @@
         <v>68</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1643,7 +1643,7 @@
         <v>69</v>
       </c>
       <c r="B9">
-        <v>0.8333333333333334</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1651,7 +1651,7 @@
         <v>70</v>
       </c>
       <c r="B10">
-        <v>0.7846153846153846</v>
+        <v>0.7746478873239436</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1659,7 +1659,7 @@
         <v>71</v>
       </c>
       <c r="B11">
-        <v>0.9565217391304348</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1667,7 +1667,7 @@
         <v>72</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1675,7 +1675,7 @@
         <v>73</v>
       </c>
       <c r="B13">
-        <v>0.9166666666666666</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1691,7 +1691,7 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1699,7 +1699,7 @@
         <v>76</v>
       </c>
       <c r="B16">
-        <v>0.9444444444444444</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1715,7 +1715,7 @@
         <v>78</v>
       </c>
       <c r="B18">
-        <v>0.8695652173913043</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1723,7 +1723,7 @@
         <v>79</v>
       </c>
       <c r="B19">
-        <v>0.8421052631578947</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1731,7 +1731,7 @@
         <v>80</v>
       </c>
       <c r="B20">
-        <v>0.8666666666666667</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1739,7 +1739,7 @@
         <v>81</v>
       </c>
       <c r="B21">
-        <v>0.8571428571428571</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1747,7 +1747,7 @@
         <v>82</v>
       </c>
       <c r="B22">
-        <v>0.4284077892325315</v>
+        <v>0.384995064165844</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1755,7 +1755,7 @@
         <v>83</v>
       </c>
       <c r="B23">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1763,7 +1763,7 @@
         <v>84</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1771,7 +1771,7 @@
         <v>85</v>
       </c>
       <c r="B25">
-        <v>0.96</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1779,7 +1779,7 @@
         <v>86</v>
       </c>
       <c r="B26">
-        <v>0.9545454545454546</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1787,7 +1787,7 @@
         <v>87</v>
       </c>
       <c r="B27">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1795,7 +1795,7 @@
         <v>88</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1803,7 +1803,7 @@
         <v>89</v>
       </c>
       <c r="B29">
-        <v>0.9545454545454546</v>
+        <v>0.9615384615384616</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1811,7 +1811,7 @@
         <v>90</v>
       </c>
       <c r="B30">
-        <v>0.9523809523809523</v>
+        <v>0.9130434782608695</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1819,7 +1819,7 @@
         <v>91</v>
       </c>
       <c r="B31">
-        <v>0.9166666666666666</v>
+        <v>0.8545454545454545</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1827,7 +1827,7 @@
         <v>92</v>
       </c>
       <c r="B32">
-        <v>0.9375</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1835,7 +1835,7 @@
         <v>93</v>
       </c>
       <c r="B33">
-        <v>0.8333333333333334</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1851,7 +1851,7 @@
         <v>95</v>
       </c>
       <c r="B35">
-        <v>0.8571428571428571</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1859,7 +1859,7 @@
         <v>96</v>
       </c>
       <c r="B36">
-        <v>0.5482456140350878</v>
+        <v>0.5158730158730159</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1875,7 +1875,7 @@
         <v>98</v>
       </c>
       <c r="B38">
-        <v>0.8571428571428571</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1883,7 +1883,7 @@
         <v>99</v>
       </c>
       <c r="B39">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1891,7 +1891,7 @@
         <v>100</v>
       </c>
       <c r="B40">
-        <v>0.8461538461538461</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1899,7 +1899,7 @@
         <v>101</v>
       </c>
       <c r="B41">
-        <v>0.9565217391304348</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1907,7 +1907,7 @@
         <v>102</v>
       </c>
       <c r="B42">
-        <v>0.9090909090909091</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1915,7 +1915,7 @@
         <v>103</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1923,7 +1923,7 @@
         <v>104</v>
       </c>
       <c r="B44">
-        <v>0.8928571428571429</v>
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1931,7 +1931,7 @@
         <v>105</v>
       </c>
       <c r="B45">
-        <v>0.9523809523809523</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1939,7 +1939,7 @@
         <v>106</v>
       </c>
       <c r="B46">
-        <v>0.5797665369649806</v>
+        <v>0.5340136054421769</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1947,7 +1947,7 @@
         <v>107</v>
       </c>
       <c r="B47">
-        <v>0.8846153846153846</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1955,7 +1955,7 @@
         <v>108</v>
       </c>
       <c r="B48">
-        <v>0.9473684210526315</v>
+        <v>0.9130434782608695</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1971,7 +1971,7 @@
         <v>110</v>
       </c>
       <c r="B50">
-        <v>0.8333333333333334</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1979,7 +1979,7 @@
         <v>111</v>
       </c>
       <c r="B51">
-        <v>0.8846153846153846</v>
+        <v>0.8275862068965517</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1987,7 +1987,7 @@
         <v>112</v>
       </c>
       <c r="B52">
-        <v>0.9285714285714286</v>
+        <v>0.9333333333333333</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1995,7 +1995,7 @@
         <v>113</v>
       </c>
       <c r="B53">
-        <v>0.9565217391304348</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2003,7 +2003,7 @@
         <v>114</v>
       </c>
       <c r="B54">
-        <v>0.7254901960784313</v>
+        <v>0.7068965517241379</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2011,7 +2011,7 @@
         <v>115</v>
       </c>
       <c r="B55">
-        <v>0.8604651162790697</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2019,7 +2019,7 @@
         <v>116</v>
       </c>
       <c r="B56">
-        <v>0.9565217391304348</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2027,7 +2027,7 @@
         <v>117</v>
       </c>
       <c r="B57">
-        <v>0.8076923076923077</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2035,7 +2035,7 @@
         <v>118</v>
       </c>
       <c r="B58">
-        <v>0.75</v>
+        <v>0.7428571428571429</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2043,7 +2043,7 @@
         <v>119</v>
       </c>
       <c r="B59">
-        <v>0.896551724137931</v>
+        <v>0.90625</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2051,7 +2051,7 @@
         <v>120</v>
       </c>
       <c r="B60">
-        <v>0.92</v>
+        <v>0.896551724137931</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2059,7 +2059,7 @@
         <v>121</v>
       </c>
       <c r="B61">
-        <v>0.8260869565217391</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2067,7 +2067,7 @@
         <v>122</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2075,7 +2075,7 @@
         <v>123</v>
       </c>
       <c r="B63">
-        <v>0.8518518518518519</v>
+        <v>0.8275862068965517</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2083,7 +2083,7 @@
         <v>124</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2091,7 +2091,7 @@
         <v>125</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2099,7 +2099,7 @@
         <v>126</v>
       </c>
       <c r="B66">
-        <v>0.8518518518518519</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2195,7 @@
         <v>127</v>
       </c>
       <c r="B2">
-        <v>0.8918918918918919</v>
+        <v>0.8837209302325582</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2203,7 +2203,7 @@
         <v>128</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2211,7 +2211,7 @@
         <v>129</v>
       </c>
       <c r="B4">
-        <v>0.896551724137931</v>
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2219,7 +2219,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>0.7872340425531915</v>
+        <v>0.7547169811320755</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2227,7 +2227,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2235,7 +2235,7 @@
         <v>132</v>
       </c>
       <c r="B7">
-        <v>0.8333333333333334</v>
+        <v>0.8085106382978723</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2243,7 +2243,7 @@
         <v>133</v>
       </c>
       <c r="B8">
-        <v>0.8409090909090909</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2251,7 +2251,7 @@
         <v>134</v>
       </c>
       <c r="B9">
-        <v>0.8723404255319149</v>
+        <v>0.8653846153846154</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2259,7 +2259,7 @@
         <v>135</v>
       </c>
       <c r="B10">
-        <v>0.8085106382978723</v>
+        <v>0.8113207547169812</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2267,7 +2267,7 @@
         <v>136</v>
       </c>
       <c r="B11">
-        <v>0.8604651162790697</v>
+        <v>0.803921568627451</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2275,7 +2275,7 @@
         <v>137</v>
       </c>
       <c r="B12">
-        <v>0.9285714285714286</v>
+        <v>0.8823529411764706</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2283,7 +2283,7 @@
         <v>138</v>
       </c>
       <c r="B13">
-        <v>0.8695652173913043</v>
+        <v>0.8301886792452831</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2291,7 +2291,7 @@
         <v>139</v>
       </c>
       <c r="B14">
-        <v>0.8695652173913043</v>
+        <v>0.8301886792452831</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2299,7 +2299,7 @@
         <v>140</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2307,7 +2307,7 @@
         <v>141</v>
       </c>
       <c r="B16">
-        <v>0.7826086956521739</v>
+        <v>0.7454545454545455</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2315,7 +2315,7 @@
         <v>142</v>
       </c>
       <c r="B17">
-        <v>0.8809523809523809</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2323,7 +2323,7 @@
         <v>143</v>
       </c>
       <c r="B18">
-        <v>0.660377358490566</v>
+        <v>0.6349206349206349</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2339,7 +2339,7 @@
         <v>145</v>
       </c>
       <c r="B20">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2347,7 +2347,7 @@
         <v>146</v>
       </c>
       <c r="B21">
-        <v>0.8148148148148148</v>
+        <v>0.8032786885245902</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2355,7 +2355,7 @@
         <v>147</v>
       </c>
       <c r="B22">
-        <v>0.9166666666666666</v>
+        <v>0.8448275862068966</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2363,7 +2363,7 @@
         <v>148</v>
       </c>
       <c r="B23">
-        <v>0.6956521739130435</v>
+        <v>0.6862745098039216</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2371,7 +2371,7 @@
         <v>149</v>
       </c>
       <c r="B24">
-        <v>0.8181818181818182</v>
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2379,7 +2379,7 @@
         <v>150</v>
       </c>
       <c r="B25">
-        <v>0.6792452830188679</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2387,7 +2387,7 @@
         <v>151</v>
       </c>
       <c r="B26">
-        <v>0.7419354838709677</v>
+        <v>0.7105263157894737</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2395,7 +2395,7 @@
         <v>152</v>
       </c>
       <c r="B27">
-        <v>0.875</v>
+        <v>0.7741935483870968</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2403,7 +2403,7 @@
         <v>153</v>
       </c>
       <c r="B28">
-        <v>0.851063829787234</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2411,7 +2411,7 @@
         <v>154</v>
       </c>
       <c r="B29">
-        <v>0.7826086956521739</v>
+        <v>0.7959183673469388</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2419,7 +2419,7 @@
         <v>155</v>
       </c>
       <c r="B30">
-        <v>0.7727272727272727</v>
+        <v>0.7551020408163265</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2427,7 +2427,7 @@
         <v>156</v>
       </c>
       <c r="B31">
-        <v>0.7450980392156863</v>
+        <v>0.7333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -2512,22 +2512,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.412488174077578</v>
+        <v>0.3444866920152092</v>
       </c>
       <c r="E2">
-        <v>0.412488174077578</v>
+        <v>0.3444866920152092</v>
       </c>
       <c r="F2">
-        <v>0.412488174077578</v>
+        <v>0.3444866920152092</v>
       </c>
       <c r="G2">
-        <v>0.412488174077578</v>
+        <v>0.3444866920152092</v>
       </c>
       <c r="H2">
-        <v>0.412488174077578</v>
+        <v>0.3444866920152092</v>
       </c>
       <c r="I2">
-        <v>0.412488174077578</v>
+        <v>0.3444866920152092</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2564,22 +2564,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.909078578799941</v>
+        <v>0.8731878484307311</v>
       </c>
       <c r="D4">
-        <v>0.1069209357862137</v>
+        <v>0.1163876226659042</v>
       </c>
       <c r="E4">
-        <v>0.6473684210526316</v>
+        <v>0.5814977973568282</v>
       </c>
       <c r="F4">
-        <v>0.8690476190476191</v>
+        <v>0.8376470588235294</v>
       </c>
       <c r="G4">
-        <v>0.9392857142857143</v>
+        <v>0.906158357771261</v>
       </c>
       <c r="H4">
-        <v>0.9875</v>
+        <v>0.933125</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2593,25 +2593,25 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.9189872791758819</v>
+        <v>0.8808743146887476</v>
       </c>
       <c r="D5">
-        <v>0.07321603757372068</v>
+        <v>0.0870758026025065</v>
       </c>
       <c r="E5">
-        <v>0.8051948051948052</v>
+        <v>0.7216494845360825</v>
       </c>
       <c r="F5">
-        <v>0.8779711375212225</v>
+        <v>0.8594155844155844</v>
       </c>
       <c r="G5">
-        <v>0.9486842105263158</v>
+        <v>0.916083916083916</v>
       </c>
       <c r="H5">
-        <v>0.9548913043478261</v>
+        <v>0.9271978021978022</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2622,22 +2622,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0.837065400548895</v>
+        <v>0.8078507348886642</v>
       </c>
       <c r="D6">
-        <v>0.2073618696352768</v>
+        <v>0.2226705062357575</v>
       </c>
       <c r="E6">
-        <v>0.4005305039787798</v>
+        <v>0.3406593406593407</v>
       </c>
       <c r="F6">
-        <v>0.8522727272727273</v>
+        <v>0.8179945054945055</v>
       </c>
       <c r="G6">
-        <v>0.8975</v>
+        <v>0.880701754385965</v>
       </c>
       <c r="H6">
-        <v>0.953125</v>
+        <v>0.9193121693121693</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2651,22 +2651,22 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>0.8734554747601565</v>
+        <v>0.8505047590181406</v>
       </c>
       <c r="D7">
-        <v>0.1087359204594399</v>
+        <v>0.1115018123473218</v>
       </c>
       <c r="E7">
-        <v>0.639751552795031</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="F7">
-        <v>0.8084101382488479</v>
+        <v>0.8088942307692308</v>
       </c>
       <c r="G7">
-        <v>0.9023809523809524</v>
+        <v>0.8844444444444444</v>
       </c>
       <c r="H7">
-        <v>0.952020202020202</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2680,22 +2680,22 @@
         <v>65</v>
       </c>
       <c r="C8">
-        <v>0.8960475482588336</v>
+        <v>0.8702526621119039</v>
       </c>
       <c r="D8">
-        <v>0.1100138192091222</v>
+        <v>0.116804107716692</v>
       </c>
       <c r="E8">
-        <v>0.4284077892325315</v>
+        <v>0.384995064165844</v>
       </c>
       <c r="F8">
-        <v>0.8518518518518519</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="G8">
-        <v>0.9166666666666666</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="H8">
-        <v>0.96</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2709,22 +2709,22 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>0.8261653849440971</v>
+        <v>0.7973556093127645</v>
       </c>
       <c r="D9">
-        <v>0.07631443533596698</v>
+        <v>0.07473090325622489</v>
       </c>
       <c r="E9">
-        <v>0.660377358490566</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="F9">
-        <v>0.7837650323774283</v>
+        <v>0.7548132460531383</v>
       </c>
       <c r="G9">
-        <v>0.8257575757575758</v>
+        <v>0.8016393442622951</v>
       </c>
       <c r="H9">
-        <v>0.8743351063829787</v>
+        <v>0.8411678594664932</v>
       </c>
       <c r="I9">
         <v>1</v>
